--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4030190.116297</v>
+        <v>4026135.990537622</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -664,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>402.7818379626613</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -712,19 +712,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>188.9150538528697</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,19 +819,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>120.33325546674</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>30.09519610355542</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>303.0256179619656</v>
+        <v>194.5727296124809</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>9.585593339986858</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>85.78770402380427</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>303.6628046558606</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>232.8521789952013</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>19.61696702788647</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>134.0389899623032</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8253826161909023</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>18.70843787977262</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>46.15319674220954</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>221.2030256723189</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2557,13 +2557,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710067</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2721,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>66.25628701154712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>20.9284728855285</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>192.9787615936012</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F37" t="n">
-        <v>113.7076464771371</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3669,13 +3669,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.0260335000785</v>
+        <v>164.5981994227929</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>34.2105855891487</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,19 +4191,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>212.4076860934771</v>
       </c>
       <c r="Y46" t="n">
-        <v>177.9413471369465</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1606.635933406614</v>
+        <v>531.4162778577438</v>
       </c>
       <c r="C2" t="n">
-        <v>1606.635933406614</v>
+        <v>531.4162778577438</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>531.4162778577438</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>531.4162778577438</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>524.4707771085403</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345445</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4351,31 +4351,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.235773470735</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.235773470735</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.235773470735</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.235773470735</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
@@ -4415,25 +4415,25 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>638.0146769637288</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1001.276695922949</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1098.688737789359</v>
+        <v>686.1991671823603</v>
       </c>
       <c r="C4" t="n">
-        <v>977.1399948936619</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D4" t="n">
-        <v>977.1399948936619</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E4" t="n">
-        <v>977.1399948936619</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>977.1399948936619</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936619</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936619</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936619</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571482</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2562.339328400156</v>
+        <v>1606.046932091108</v>
       </c>
       <c r="U4" t="n">
-        <v>2273.220990903993</v>
+        <v>1606.046932091108</v>
       </c>
       <c r="V4" t="n">
-        <v>2018.536502698106</v>
+        <v>1606.046932091108</v>
       </c>
       <c r="W4" t="n">
-        <v>1729.119332661146</v>
+        <v>1316.629762054147</v>
       </c>
       <c r="X4" t="n">
-        <v>1501.129781763128</v>
+        <v>1088.64021115613</v>
       </c>
       <c r="Y4" t="n">
-        <v>1280.337202619598</v>
+        <v>867.8476320126</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1590.416669135309</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4582,37 +4582,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250375</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X5" t="n">
-        <v>2283.102991989295</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y5" t="n">
-        <v>1977.016509199431</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
         <v>765.1517452158132</v>
@@ -4658,34 +4658,34 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>785.6801677492715</v>
+        <v>934.7250629667018</v>
       </c>
       <c r="C7" t="n">
-        <v>616.7439848213646</v>
+        <v>765.7888800387949</v>
       </c>
       <c r="D7" t="n">
-        <v>466.6273454090289</v>
+        <v>615.6722406264591</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>467.759147044066</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>320.8691995461556</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>153.1663629208746</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>153.1663629208746</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4755,22 +4755,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1705.527932658019</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1705.527932658019</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>1416.110762621059</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="X7" t="n">
-        <v>1188.121211723041</v>
+        <v>1155.517642110232</v>
       </c>
       <c r="Y7" t="n">
-        <v>967.3286325795112</v>
+        <v>934.7250629667018</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2251.634947019674</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C8" t="n">
-        <v>1882.672430079262</v>
+        <v>758.7856865549923</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>758.7856865549923</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>758.7856865549923</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>2641.774278995485</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.634947019674</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,19 +4886,19 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>477.7831921883597</v>
+        <v>815.7608990065712</v>
       </c>
       <c r="C10" t="n">
-        <v>477.7831921883597</v>
+        <v>646.8247160786643</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7831921883597</v>
+        <v>496.7080766663286</v>
       </c>
       <c r="E10" t="n">
-        <v>329.8700986059666</v>
+        <v>348.7949830839354</v>
       </c>
       <c r="F10" t="n">
-        <v>329.8700986059666</v>
+        <v>201.9050355860251</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>201.9050355860251</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621296</v>
+        <v>1446.191493878358</v>
       </c>
       <c r="X10" t="n">
-        <v>880.2242361621296</v>
+        <v>1218.201942980341</v>
       </c>
       <c r="Y10" t="n">
-        <v>659.4316570185995</v>
+        <v>997.4093638368109</v>
       </c>
     </row>
     <row r="11">
@@ -5023,31 +5023,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,16 +5056,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492579</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>94.65038286230612</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,22 +5290,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
         <v>402.7245934908939</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5749,7 +5749,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5758,16 +5758,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,19 +5834,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="G22" t="n">
-        <v>194.8007783998286</v>
+        <v>282.1478848544703</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>140.4360536966684</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="23">
@@ -5977,19 +5977,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6220,7 +6220,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>597.2570777219835</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>449.3439841395904</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F28" t="n">
-        <v>302.45403664168</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>114.9565346495158</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1849.578742244367</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1849.578742244367</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7019,25 +7019,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>984.5467179762944</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>815.6105350483875</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>665.4938956360518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>517.5808020536587</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1166.195182806534</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7256,25 +7256,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
         <v>317.6151975578602</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
         <v>2319.799627685893</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>527.7722521572603</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>210.4595134598044</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7742,10 +7742,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1688.043910473548</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1460.05435957553</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>929.7309773356194</v>
       </c>
     </row>
   </sheetData>
@@ -8063,25 +8063,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>45.44676101130892</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071651</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>211.0329012241561</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>139.469330230033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>35.112639576356</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>65.31997266427211</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>99.26785128072173</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>144.5956654067404</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>93.20571279564294</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F37" t="n">
-        <v>31.71340154579413</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891656</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>106.0841272570752</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>13.30196929556007</v>
       </c>
       <c r="Y46" t="n">
-        <v>40.6433062151483</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>614509.1092426893</v>
+        <v>614509.1092426894</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>614509.1092426894</v>
+        <v>614509.1092426893</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>614509.1092426894</v>
+        <v>614509.1092426893</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>614509.1092426894</v>
+        <v>614509.1092426893</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>614509.1092426894</v>
+        <v>614509.1092426893</v>
       </c>
     </row>
     <row r="16">
@@ -26316,31 +26316,31 @@
         <v>821041.7698642834</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642836</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.599690006</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="G2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="I2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="J2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="L2" t="n">
         <v>807146.5996900062</v>
@@ -26349,13 +26349,13 @@
         <v>807146.5996900061</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900063</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121062</v>
+        <v>203438.7416121059</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605451</v>
+        <v>49110.09270605448</v>
       </c>
       <c r="L3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26420,19 +26420,19 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312012</v>
+        <v>89134.17909312017</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.1790931202</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768948</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768943</v>
+        <v>9947.144321768841</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768901</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
@@ -26441,13 +26441,13 @@
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
+        <v>9947.144321768938</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9947.144321768952</v>
+      </c>
+      <c r="L4" t="n">
         <v>9947.144321768897</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9947.144321768897</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9947.144321768923</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26524,46 +26524,46 @@
         <v>-524578.1965587029</v>
       </c>
       <c r="C6" t="n">
-        <v>420534.9085976639</v>
+        <v>420534.9085976635</v>
       </c>
       <c r="D6" t="n">
-        <v>623973.6502097698</v>
+        <v>623973.6502097697</v>
       </c>
       <c r="E6" t="n">
-        <v>370664.4637369746</v>
+        <v>370317.0844826176</v>
       </c>
       <c r="F6" t="n">
-        <v>696076.9255443302</v>
+        <v>695729.546289973</v>
       </c>
       <c r="G6" t="n">
-        <v>696076.9255443302</v>
+        <v>695729.5462899734</v>
       </c>
       <c r="H6" t="n">
-        <v>696076.9255443302</v>
+        <v>695729.5462899734</v>
       </c>
       <c r="I6" t="n">
-        <v>696076.9255443302</v>
+        <v>695729.5462899733</v>
       </c>
       <c r="J6" t="n">
-        <v>528471.7477343478</v>
+        <v>528124.3684799906</v>
       </c>
       <c r="K6" t="n">
-        <v>646966.8328382757</v>
+        <v>646619.4535839189</v>
       </c>
       <c r="L6" t="n">
-        <v>696076.9255443303</v>
+        <v>695729.5462899733</v>
       </c>
       <c r="M6" t="n">
-        <v>611021.8976088183</v>
+        <v>610674.5183544613</v>
       </c>
       <c r="N6" t="n">
-        <v>696076.9255443305</v>
+        <v>695729.5462899733</v>
       </c>
       <c r="O6" t="n">
-        <v>696076.9255443303</v>
+        <v>695729.5462899732</v>
       </c>
       <c r="P6" t="n">
-        <v>696076.9255443303</v>
+        <v>695729.5462899733</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26715,10 +26715,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757593</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8.765864810292669</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>138.8372046172652</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,19 +27539,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>46.91356563188788</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27590,13 +27590,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>190.6534998936565</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>83.21232069408802</v>
+        <v>191.6652090435727</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>136.8483693065823</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>10.56471638603382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>51.0202369648224</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>174.0238667465102</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>146.4088412311418</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>10.71602495201753</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28380,19 +28380,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29754,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>5.464171643889758e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>381.6404378718164</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,31 +32311,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32496,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32730,7 +32730,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,19 +32800,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>333.9544784328825</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33201,7 +33201,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669223</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,25 +33505,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>477.8500485393217</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33678,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33739,28 +33739,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33976,10 +33976,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q39" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34210,13 +34210,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,25 +34783,25 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>343.1271216491591</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>640.584832100039</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>546.4575832202792</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>243.7989988974574</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36378,7 +36378,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>191.358233988438</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>339.2956687594475</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37387,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37624,10 +37624,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q39" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4026135.990537622</v>
+        <v>4027896.520840407</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>402.7818379626613</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>343.6990775316565</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>30.09519610355542</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>262.1760984877395</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>397.5308052145718</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>194.5727296124809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>85.78770402380427</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>241.2617668068162</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>232.8521789952013</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>191.2490250244972</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>134.0389899623032</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>90.12084770937722</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>240.7377005646516</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576169</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710067</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>99.97427419833816</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569541</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>164.5981994227929</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>142.4285301601181</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>212.4076860934771</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>531.4162778577438</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="C2" t="n">
-        <v>531.4162778577438</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="D2" t="n">
-        <v>531.4162778577438</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E2" t="n">
-        <v>531.4162778577438</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>524.4707771085403</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4327,19 +4327,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4360,7 +4360,7 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
@@ -4372,10 +4372,10 @@
         <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218655</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218655</v>
+        <v>944.3110907974333</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>114.5432626034346</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>299.2648838844846</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>593.9684409159563</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>957.2304598751764</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>686.1991671823603</v>
+        <v>1444.105910816296</v>
       </c>
       <c r="C4" t="n">
-        <v>517.2629842544534</v>
+        <v>1275.169727888389</v>
       </c>
       <c r="D4" t="n">
-        <v>367.1463448421176</v>
+        <v>1125.053088476053</v>
       </c>
       <c r="E4" t="n">
-        <v>219.2332512597245</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.609167878779</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.98193257148</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324692</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1606.046932091108</v>
+        <v>2339.36084759489</v>
       </c>
       <c r="U4" t="n">
-        <v>1606.046932091108</v>
+        <v>2074.536505688083</v>
       </c>
       <c r="V4" t="n">
-        <v>1606.046932091108</v>
+        <v>2074.536505688083</v>
       </c>
       <c r="W4" t="n">
-        <v>1316.629762054147</v>
+        <v>2074.536505688083</v>
       </c>
       <c r="X4" t="n">
-        <v>1088.64021115613</v>
+        <v>1846.546954790065</v>
       </c>
       <c r="Y4" t="n">
-        <v>867.8476320126</v>
+        <v>1625.754375646535</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>2038.144201386631</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1669.18168444622</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1310.915985839469</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>925.1277332412251</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4567,10 +4567,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4579,7 +4579,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>2424.744041450753</v>
       </c>
     </row>
     <row r="6">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>934.7250629667018</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>765.7888800387949</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>615.6722406264591</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>467.759147044066</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>320.8691995461556</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>153.1663629208746</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>153.1663629208746</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1683.595793738173</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1683.595793738173</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.507193008249</v>
+        <v>1394.178623701213</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.517642110232</v>
+        <v>1166.189072803195</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.7250629667018</v>
+        <v>945.3964936596652</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1127.748203495404</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C8" t="n">
-        <v>758.7856865549923</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D8" t="n">
-        <v>758.7856865549923</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E8" t="n">
-        <v>758.7856865549923</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
         <v>523.5814653477182</v>
@@ -4816,7 +4816,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3022.134319778188</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>2768.603843052024</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2437.540955708454</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>2084.772300438339</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535337</v>
+        <v>1711.306542177259</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559526</v>
+        <v>1321.167210201447</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,13 +4886,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>815.7608990065712</v>
+        <v>917.616325937273</v>
       </c>
       <c r="C10" t="n">
-        <v>646.8247160786643</v>
+        <v>748.6801430093661</v>
       </c>
       <c r="D10" t="n">
-        <v>496.7080766663286</v>
+        <v>598.5635035970304</v>
       </c>
       <c r="E10" t="n">
-        <v>348.7949830839354</v>
+        <v>450.6504100146373</v>
       </c>
       <c r="F10" t="n">
-        <v>201.9050355860251</v>
+        <v>303.7604625167269</v>
       </c>
       <c r="G10" t="n">
-        <v>201.9050355860251</v>
+        <v>303.7604625167269</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>157.5432757345847</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V10" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W10" t="n">
-        <v>1446.191493878358</v>
+        <v>1548.04692080906</v>
       </c>
       <c r="X10" t="n">
-        <v>1218.201942980341</v>
+        <v>1320.057369911043</v>
       </c>
       <c r="Y10" t="n">
-        <v>997.4093638368109</v>
+        <v>1099.264790767513</v>
       </c>
     </row>
     <row r="11">
@@ -5038,16 +5038,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5074,16 +5074,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>484.8243144841094</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L12" t="n">
-        <v>980.1499206998682</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797189</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="14">
@@ -5272,40 +5272,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5518,7 +5518,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5530,13 +5530,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5545,22 +5545,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5846,10 +5846,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5986,22 +5986,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6220,10 +6220,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6232,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6363,25 +6363,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6457,34 +6457,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,16 +6733,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7165,10 +7165,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7180,13 +7180,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O39" t="n">
-        <v>2297.690135143765</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>467.7318369701959</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
         <v>317.6151975578602</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1811.200273012738</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1556.515784806851</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1267.09861476989</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
         <v>402.7245934908939</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2236.050177650725</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2016.448712673667</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1727.373486017864</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1472.688997811978</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1183.271827775017</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>955.2822768769995</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>929.7309773356194</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>929.7309773356194</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.9556134883062413</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>211.0329012241561</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>45.44677382459258</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>46.45968844823101</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>69.70496293143185</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>38.59775584152646</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>13.30196929556007</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642829</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900058</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="G2" t="n">
         <v>807146.5996900061</v>
@@ -26334,28 +26334,28 @@
         <v>807146.5996900063</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="J2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="K2" t="n">
         <v>807146.5996900061</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.5996900062</v>
       </c>
       <c r="L2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="M2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="N2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="P2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="O2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.5996900063</v>
       </c>
     </row>
     <row r="3">
@@ -26368,7 +26368,7 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121059</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,19 +26420,19 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312017</v>
+        <v>89134.1790931202</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.1790931202</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768841</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768861</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
@@ -26441,13 +26441,13 @@
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768938</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768952</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768857</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-524578.1965587029</v>
+        <v>-524578.1965587027</v>
       </c>
       <c r="C6" t="n">
-        <v>420534.9085976635</v>
+        <v>420534.9085976636</v>
       </c>
       <c r="D6" t="n">
-        <v>623973.6502097697</v>
+        <v>623973.6502097695</v>
       </c>
       <c r="E6" t="n">
-        <v>370317.0844826176</v>
+        <v>370629.7258115386</v>
       </c>
       <c r="F6" t="n">
-        <v>695729.546289973</v>
+        <v>696042.1876188949</v>
       </c>
       <c r="G6" t="n">
-        <v>695729.5462899734</v>
+        <v>696042.1876188945</v>
       </c>
       <c r="H6" t="n">
-        <v>695729.5462899734</v>
+        <v>696042.1876188947</v>
       </c>
       <c r="I6" t="n">
-        <v>695729.5462899733</v>
+        <v>696042.1876188945</v>
       </c>
       <c r="J6" t="n">
-        <v>528124.3684799906</v>
+        <v>528437.0098089118</v>
       </c>
       <c r="K6" t="n">
-        <v>646619.4535839189</v>
+        <v>646932.0949128401</v>
       </c>
       <c r="L6" t="n">
-        <v>695729.5462899733</v>
+        <v>696042.1876188946</v>
       </c>
       <c r="M6" t="n">
-        <v>610674.5183544613</v>
+        <v>610987.1596833827</v>
       </c>
       <c r="N6" t="n">
-        <v>695729.5462899733</v>
+        <v>696042.1876188945</v>
       </c>
       <c r="O6" t="n">
-        <v>695729.5462899732</v>
+        <v>696042.1876188947</v>
       </c>
       <c r="P6" t="n">
-        <v>695729.5462899733</v>
+        <v>696042.1876188946</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
@@ -26801,7 +26801,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>190.8166233022539</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>190.8166233022539</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>190.8166233022539</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.765864810292669</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>26.03202314681255</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27590,16 +27590,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>190.6534998936565</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>24.05105563346109</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>9.345240527139651</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>191.6652090435727</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>10.56471638603382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>44.95007139879669</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>174.0238667465102</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>12.66894511512297</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>10.71602495201753</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>6.231572700460873</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-5.340952993396433e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31837,13 +31837,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>381.6404378718164</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
@@ -31852,13 +31852,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32496,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>164.9290651940687</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,16 +33985,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34213,10 +34213,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>164.9290651940687</v>
@@ -34468,19 +34468,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>63.93583437922369</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
@@ -34786,19 +34786,19 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>546.4575832202792</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>243.7989988974574</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
@@ -35500,13 +35500,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>22.33282074962425</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,16 +37633,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>22.33282074962425</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
